--- a/biology/Botanique/Jardin_mémorial_de_la_Saint-Barthélemy/Jardin_mémorial_de_la_Saint-Barthélemy.xlsx
+++ b/biology/Botanique/Jardin_mémorial_de_la_Saint-Barthélemy/Jardin_mémorial_de_la_Saint-Barthélemy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9morial_de_la_Saint-Barth%C3%A9lemy</t>
+          <t>Jardin_mémorial_de_la_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin mémorial de la Saint-Barthélemy est un espace vert du 1er arrondissement de Paris, dans le quartier de Saint-Germain-l'Auxerrois[1].
+Le jardin mémorial de la Saint-Barthélemy est un espace vert du 1er arrondissement de Paris, dans le quartier de Saint-Germain-l'Auxerrois.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9morial_de_la_Saint-Barth%C3%A9lemy</t>
+          <t>Jardin_mémorial_de_la_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé au no 2 de la place du Louvre dans le 1er arrondissement de Paris.
 Il est desservi par la ligne 1 à la station Louvre - Rivoli.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9morial_de_la_Saint-Barth%C3%A9lemy</t>
+          <t>Jardin_mémorial_de_la_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square a été nommé en souvenir des victimes du massacre de la Saint-Barthélemy, massacre déclenché par les catholiques contre les protestants le 24 aout 1572, jour de la Saint-Barthélémy. Ce lieu a été choisi car c'est de l'Église Saint-Germain-l'Auxerrois, juste à côté, que sonnera le tocsin qui lancera les massacres à Paris[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square a été nommé en souvenir des victimes du massacre de la Saint-Barthélemy, massacre déclenché par les catholiques contre les protestants le 24 aout 1572, jour de la Saint-Barthélémy. Ce lieu a été choisi car c'est de l'Église Saint-Germain-l'Auxerrois, juste à côté, que sonnera le tocsin qui lancera les massacres à Paris.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9morial_de_la_Saint-Barth%C3%A9lemy</t>
+          <t>Jardin_mémorial_de_la_Saint-Barthélemy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été inauguré le 16 septembre 2022, à l'occasion du 450e anniversaire du Massacre de la Saint-Barthélemy en présence d'Anne Hidalgo, maire de Paris et de Christian Krieger, président de la Fédération protestante de France [3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été inauguré le 16 septembre 2022, à l'occasion du 450e anniversaire du Massacre de la Saint-Barthélemy en présence d'Anne Hidalgo, maire de Paris et de Christian Krieger, président de la Fédération protestante de France ,.
 </t>
         </is>
       </c>
